--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Value/1.6/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Value/1.6/accreditamento-checklist_V8.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_Value_RSA\1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFEF87-27C6-42D0-B5A4-5778CFB086AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283FF5A4-95FF-428D-8862-4FB0318B258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="309">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1329,6 +1329,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.c1f36458f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il test non è supportato in quanto l'applicazione non gestisce la codifica del quesito diagnostico (ICD9-CM) che si tradurrebbe nel CDA nella sezione &lt;entry&gt;/&lt;observation&gt;, ma solo il QD Testuale.</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2137,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.109375" customWidth="1"/>
-    <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="130.140625" customWidth="1"/>
+    <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -3198,11 +3201,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="194.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="194.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -3274,7 +3277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -4296,32 +4299,32 @@
   <dimension ref="A1:T652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
-    <col min="5" max="5" width="139.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="5" max="5" width="139.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
-    <col min="11" max="11" width="52.5546875" customWidth="1"/>
-    <col min="12" max="12" width="50.44140625" customWidth="1"/>
-    <col min="13" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" customWidth="1"/>
+    <col min="12" max="12" width="50.42578125" customWidth="1"/>
+    <col min="13" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="31.88671875" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -5702,7 +5705,7 @@
         <v>160</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25" t="s">
@@ -5802,7 +5805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="43" customFormat="1" ht="101.4" thickBot="1">
+    <row r="37" spans="1:20" s="43" customFormat="1" ht="105.75" thickBot="1">
       <c r="A37" s="35">
         <v>12</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="43" customFormat="1" ht="101.4" thickBot="1">
+    <row r="38" spans="1:20" s="43" customFormat="1" ht="105.75" thickBot="1">
       <c r="A38" s="35">
         <v>13</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="43" customFormat="1" ht="101.4" thickBot="1">
+    <row r="39" spans="1:20" s="43" customFormat="1" ht="105.75" thickBot="1">
       <c r="A39" s="35">
         <v>14</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="43" customFormat="1" ht="231" thickBot="1">
+    <row r="40" spans="1:20" s="43" customFormat="1" ht="255.75" thickBot="1">
       <c r="A40" s="35">
         <v>31</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="43" customFormat="1" ht="231" thickBot="1">
+    <row r="41" spans="1:20" s="43" customFormat="1" ht="255.75" thickBot="1">
       <c r="A41" s="35">
         <v>39</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="43" customFormat="1" ht="231" thickBot="1">
+    <row r="42" spans="1:20" s="43" customFormat="1" ht="255.75" thickBot="1">
       <c r="A42" s="35">
         <v>47</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="43" customFormat="1" ht="303" thickBot="1">
+    <row r="43" spans="1:20" s="43" customFormat="1" ht="390.75" thickBot="1">
       <c r="A43" s="35">
         <v>75</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="44" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A44" s="35">
         <v>76</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="45" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A45" s="35">
         <v>77</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="46" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A46" s="35">
         <v>78</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="47" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A47" s="35">
         <v>79</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="48" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A48" s="35">
         <v>80</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="49" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A49" s="35">
         <v>81</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="50" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A50" s="35">
         <v>82</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="51" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A51" s="35">
         <v>83</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="43" customFormat="1" ht="259.8" thickBot="1">
+    <row r="52" spans="1:20" s="43" customFormat="1" ht="285.75" thickBot="1">
       <c r="A52" s="35">
         <v>84</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="43" customFormat="1" ht="87" thickBot="1">
+    <row r="53" spans="1:20" s="43" customFormat="1" ht="90.75" thickBot="1">
       <c r="A53" s="35">
         <v>85</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="43" customFormat="1" ht="87" thickBot="1">
+    <row r="54" spans="1:20" s="43" customFormat="1" ht="90.75" thickBot="1">
       <c r="A54" s="35">
         <v>86</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="43" customFormat="1" ht="101.4" thickBot="1">
+    <row r="55" spans="1:20" s="43" customFormat="1" ht="105.75" thickBot="1">
       <c r="A55" s="35">
         <v>87</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="43" customFormat="1" ht="87" thickBot="1">
+    <row r="56" spans="1:20" s="43" customFormat="1" ht="90.75" thickBot="1">
       <c r="A56" s="35">
         <v>88</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="43" customFormat="1" ht="72.599999999999994" thickBot="1">
+    <row r="57" spans="1:20" s="43" customFormat="1" ht="75.75" thickBot="1">
       <c r="A57" s="35">
         <v>89</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="43" customFormat="1" ht="72.599999999999994" thickBot="1">
+    <row r="58" spans="1:20" s="43" customFormat="1" ht="75.75" thickBot="1">
       <c r="A58" s="35">
         <v>90</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="43" customFormat="1" ht="87" thickBot="1">
+    <row r="59" spans="1:20" s="43" customFormat="1" ht="90.75" thickBot="1">
       <c r="A59" s="35">
         <v>91</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="43" customFormat="1" ht="87" thickBot="1">
+    <row r="60" spans="1:20" s="43" customFormat="1" ht="105.75" thickBot="1">
       <c r="A60" s="35">
         <v>92</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="43" customFormat="1" ht="259.2">
+    <row r="61" spans="1:20" s="43" customFormat="1" ht="285">
       <c r="A61" s="35">
         <v>93</v>
       </c>
@@ -11235,13 +11238,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -11328,7 +11331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>50</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -11370,7 +11373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="11" t="s">
         <v>126</v>
       </c>
@@ -12906,11 +12909,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
